--- a/opm_hero_property/heroes/110.xlsx
+++ b/opm_hero_property/heroes/110.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>110</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5509356.7674624</v>
+        <v>6424526.621990399</v>
       </c>
       <c r="U2" t="n">
-        <v>948216.202064</v>
+        <v>1099574.049104</v>
       </c>
       <c r="V2" t="n">
-        <v>774615.7422357401</v>
+        <v>902150.4524037401</v>
       </c>
       <c r="W2" t="n">
         <v>4740</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11221122.907125</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2087485.41072525</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2904729.23257</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1795239.75</v>
+      </c>
+      <c r="AU2" t="n">
         <v>610958.461709255</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16521983.0795595</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19214846.66212951</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>110</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>689414.5732848</v>
+        <v>792478.1415408</v>
       </c>
       <c r="U3" t="n">
-        <v>138358.681168</v>
+        <v>155403.549648</v>
       </c>
       <c r="V3" t="n">
-        <v>101533.53151222</v>
+        <v>116194.88801622</v>
       </c>
       <c r="W3" t="n">
         <v>4740</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1271597.008325</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>236873.59354845</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>582342.3606660001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>203314.2</v>
+      </c>
+      <c r="AU3" t="n">
         <v>71582.427665815</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2243801.279539265</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2548777.240205265</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>110</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7526.620800000001</v>
+        <v>8008.620800000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1573.3763</v>
+        <v>1652.3763</v>
       </c>
       <c r="V4" t="n">
-        <v>563.9669</v>
+        <v>630.9669</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18902.876945</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23359.726945</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1412.35</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24772.076945</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>110</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20158.1852</v>
+        <v>34325.1852</v>
       </c>
       <c r="U5" t="n">
-        <v>3925.077</v>
+        <v>6268.077</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.087</v>
+        <v>3688.087</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48038.46675</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59867.26675</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41684.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101551.46675</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>110</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56778.5576</v>
+        <v>117515.5576</v>
       </c>
       <c r="U6" t="n">
-        <v>10180.85</v>
+        <v>20225.85</v>
       </c>
       <c r="V6" t="n">
-        <v>5469.618</v>
+        <v>13933.618</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115042.4261</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163411.7261</v>
+      <c r="AT6" t="n">
+        <v>178715.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>342127.2261</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>110</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62886.46178432</v>
+        <v>123623.46178432</v>
       </c>
       <c r="U7" t="n">
-        <v>11699.02848</v>
+        <v>21744.02848</v>
       </c>
       <c r="V7" t="n">
-        <v>6480.059748400001</v>
+        <v>14944.0597484</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115042.4261</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>178715.5</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22393.37574962</v>
       </c>
-      <c r="AS7" t="n">
-        <v>185988.10184962</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>364703.60184962</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>110</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>69236.06131424</v>
+        <v>129973.06131424</v>
       </c>
       <c r="U8" t="n">
-        <v>13261.18006</v>
+        <v>23306.18006</v>
       </c>
       <c r="V8" t="n">
-        <v>7514.8832048</v>
+        <v>15978.8832048</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115042.4261</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>685.3045566000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>178715.5</v>
+      </c>
+      <c r="AU8" t="n">
         <v>44786.75149924</v>
       </c>
-      <c r="AS8" t="n">
-        <v>209066.78215584</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>387782.2821558401</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>110</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>242126.6824</v>
+        <v>423077.679224</v>
       </c>
       <c r="U9" t="n">
-        <v>40895.52</v>
+        <v>69684.1652</v>
       </c>
       <c r="V9" t="n">
-        <v>26612.4814</v>
+        <v>50715.756214</v>
       </c>
       <c r="W9" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>521382.88845</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>690149.5384500001</v>
+        <v>44543.9788845</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>418753.3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1208456.0173345</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>110</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>249803.07947808</v>
+        <v>488104.6096755175</v>
       </c>
       <c r="U10" t="n">
-        <v>42710.776816</v>
+        <v>80794.969208576</v>
       </c>
       <c r="V10" t="n">
-        <v>27818.45071772</v>
+        <v>58353.51659129096</v>
       </c>
       <c r="W10" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>521382.88845</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3123.3473307</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44543.9788845</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>418753.3</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24012.64535467</v>
       </c>
-      <c r="AS10" t="n">
-        <v>717285.53113537</v>
+      <c r="AV10" t="n">
+        <v>252820.207594745</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1394064.617614615</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>110</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>287150.6563568</v>
+        <v>590299.1629380543</v>
       </c>
       <c r="U11" t="n">
-        <v>51080.3268</v>
+        <v>98176.510992</v>
       </c>
       <c r="V11" t="n">
-        <v>33420.47006714</v>
+        <v>71182.37228900053</v>
       </c>
       <c r="W11" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="AA11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB11" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>521382.88845</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>34526.8206377</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44543.9788845</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>418753.3</v>
+      </c>
+      <c r="AU11" t="n">
         <v>120088.255075155</v>
       </c>
-      <c r="AS11" t="n">
-        <v>844764.6141628551</v>
+      <c r="AV11" t="n">
+        <v>421404.2363972524</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1690127.729444607</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>110</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>298220.6373008</v>
+        <v>683975.6944414207</v>
       </c>
       <c r="U12" t="n">
-        <v>52926.198</v>
+        <v>109421.4309072</v>
       </c>
       <c r="V12" t="n">
-        <v>34712.11895114</v>
+        <v>83326.02430327589</v>
       </c>
       <c r="W12" t="n">
-        <v>3620</v>
+        <v>3640</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>521382.88845</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>65930.2939447</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44543.9788845</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>418753.3</v>
+      </c>
+      <c r="AU12" t="n">
         <v>120088.255075155</v>
       </c>
-      <c r="AS12" t="n">
-        <v>876168.0874698551</v>
+      <c r="AV12" t="n">
+        <v>631383.241090582</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1931510.207444937</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>110</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>341400.6144336</v>
+        <v>824134.4670940094</v>
       </c>
       <c r="U13" t="n">
-        <v>62742.83056</v>
+        <v>132292.47675096</v>
       </c>
       <c r="V13" t="n">
-        <v>41288.61081916</v>
+        <v>101032.2008297527</v>
       </c>
       <c r="W13" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2220</v>
+        <v>2270</v>
       </c>
       <c r="AA13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB13" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>521382.88845</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>97333.7672517</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44543.9788845</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>418753.3</v>
+      </c>
+      <c r="AU13" t="n">
         <v>237584.35180607</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1025067.65750777</v>
+      <c r="AV13" t="n">
+        <v>882793.1750544414</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2331819.711446712</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>110</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>309290.6182448</v>
+        <v>923390.3005921025</v>
       </c>
       <c r="U14" t="n">
-        <v>54772.06920000001</v>
+        <v>139002.5875456</v>
       </c>
       <c r="V14" t="n">
-        <v>36003.76783514</v>
+        <v>105933.8676727194</v>
       </c>
       <c r="W14" t="n">
-        <v>3540</v>
+        <v>3590</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB14" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>521382.88845</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>97333.7672517</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44360.9788845</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>418753.3</v>
+      </c>
+      <c r="AU14" t="n">
         <v>120088.255075155</v>
       </c>
-      <c r="AS14" t="n">
-        <v>907388.5607768551</v>
+      <c r="AV14" t="n">
+        <v>1174029.454113524</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2505376.893774879</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>110</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>455562.40941496</v>
+        <v>1467891.483566431</v>
       </c>
       <c r="U15" t="n">
-        <v>80452.46754192001</v>
+        <v>231176.4338864144</v>
       </c>
       <c r="V15" t="n">
-        <v>58932.3312274</v>
+        <v>179368.1775029382</v>
       </c>
       <c r="W15" t="n">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2280</v>
+        <v>2380</v>
       </c>
       <c r="AA15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AB15" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>803079.03006</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>149729.24959116</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127939.0806012</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>766172.1000000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>150830.660360598</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1363060.340011758</v>
+      <c r="AV15" t="n">
+        <v>1963813.377411628</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4109090.898024586</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>110</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>462427.48551032</v>
+        <v>1502762.789311593</v>
       </c>
       <c r="U16" t="n">
-        <v>82157.33339984</v>
+        <v>237266.6820793143</v>
       </c>
       <c r="V16" t="n">
-        <v>60065.6999582</v>
+        <v>183828.3081816138</v>
       </c>
       <c r="W16" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2340</v>
+        <v>2540</v>
       </c>
       <c r="AA16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB16" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>803079.03006</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>149729.24959116</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128122.0806012</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>766172.1000000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>175976.181077706</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1388388.860728866</v>
+      <c r="AV16" t="n">
+        <v>2042407.626373074</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4213013.667703141</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>110</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1093838.43298512</v>
+        <v>2720215.352957937</v>
       </c>
       <c r="U17" t="n">
-        <v>194264.42635952</v>
+        <v>430000.3959865575</v>
       </c>
       <c r="V17" t="n">
-        <v>160579.52337</v>
+        <v>357373.70274864</v>
       </c>
       <c r="W17" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2580</v>
+        <v>2780</v>
       </c>
       <c r="AA17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB17" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1840956.68286</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>342774.49301196</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>758620.2673143999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1224171.05</v>
+      </c>
+      <c r="AU17" t="n">
         <v>233274.308371348</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3372025.234243308</v>
+      <c r="AV17" t="n">
+        <v>3089145.324512155</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7758946.876069864</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>110</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5509356.7674624</v>
+        <v>9638817.040972747</v>
       </c>
       <c r="U18" t="n">
-        <v>948216.202064</v>
+        <v>1497867.386898272</v>
       </c>
       <c r="V18" t="n">
-        <v>774615.7422357401</v>
+        <v>1231765.949787381</v>
       </c>
       <c r="W18" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3060</v>
+        <v>3260</v>
       </c>
       <c r="AA18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB18" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11221122.907125</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2087485.41072525</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2904729.23257</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1795239.75</v>
+      </c>
+      <c r="AU18" t="n">
         <v>610958.461709255</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16521983.0795595</v>
+      <c r="AV18" t="n">
+        <v>7860203.559718759</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27075050.22184826</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>110</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8989576.716385601</v>
+        <v>16522437.47546583</v>
       </c>
       <c r="U19" t="n">
-        <v>1540308.900768</v>
+        <v>2666166.090784512</v>
       </c>
       <c r="V19" t="n">
-        <v>1255123.05047434</v>
+        <v>2188894.330944338</v>
       </c>
       <c r="W19" t="n">
-        <v>5780</v>
+        <v>5980</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3840</v>
+        <v>4040</v>
       </c>
       <c r="AA19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18208485.8855</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3387134.924703</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6201628.132824999</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1795239.75</v>
+      </c>
+      <c r="AU19" t="n">
         <v>610958.461709255</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26852938.67191226</v>
+      <c r="AV19" t="n">
+        <v>16146471.35007165</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47525798.90480891</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>110</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>221408.32406032</v>
+        <v>228248.32406032</v>
       </c>
       <c r="U20" t="n">
-        <v>40888.87484844</v>
+        <v>42019.87484844</v>
       </c>
       <c r="V20" t="n">
-        <v>24000.60402764</v>
+        <v>24973.60402764</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>549637.03368</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3292.87220208</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20238.65</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12994.427791406</v>
       </c>
-      <c r="AS20" t="n">
-        <v>646663.033673486</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>666901.683673486</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>110</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>289670.99683656</v>
+        <v>303787.02480256</v>
       </c>
       <c r="U21" t="n">
-        <v>51789.7698528</v>
+        <v>54145.9039728</v>
       </c>
       <c r="V21" t="n">
-        <v>33512.48924012</v>
+        <v>35468.78580212</v>
       </c>
       <c r="W21" t="n">
         <v>1860</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>652050.86255</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>43150.90692830001</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73231.8586255</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35109.8</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17270.75247327</v>
       </c>
-      <c r="AS21" t="n">
-        <v>847243.2219515699</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>888865.28057707</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>110</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>406984.253904</v>
+        <v>535574.85652868</v>
       </c>
       <c r="U22" t="n">
-        <v>70544.18204900001</v>
+        <v>89286.598915239</v>
       </c>
       <c r="V22" t="n">
-        <v>50546.08543966</v>
+        <v>65714.42262986345</v>
       </c>
       <c r="W22" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2020</v>
+        <v>2070</v>
       </c>
       <c r="AA22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB22" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>826199.5792500001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>104337.1969855</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105145.1457925</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47421</v>
+      </c>
+      <c r="AU22" t="n">
         <v>32423.025084645</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1197541.101320145</v>
+      <c r="AV22" t="n">
+        <v>290056.4720528988</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1543272.319165544</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>110</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>470439.67543176</v>
+        <v>690528.0792479289</v>
       </c>
       <c r="U23" t="n">
-        <v>83707.75004568</v>
+        <v>119604.0484924366</v>
       </c>
       <c r="V23" t="n">
-        <v>60798.70914779999</v>
+        <v>87439.7627617554</v>
       </c>
       <c r="W23" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2340</v>
+        <v>2540</v>
       </c>
       <c r="AA23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB23" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>902232.6573299998</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>168171.82426338</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171447.1531466</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86764.35000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>42819.396753422</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1411313.728346802</v>
+      <c r="AV23" t="n">
+        <v>518566.4182324327</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2034672.649725835</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>110</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>542192.038396</v>
+        <v>868099.0166312561</v>
       </c>
       <c r="U24" t="n">
-        <v>101612.49971408</v>
+        <v>155563.9703846386</v>
       </c>
       <c r="V24" t="n">
-        <v>74202.05868877</v>
+        <v>114849.1413165469</v>
       </c>
       <c r="W24" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2580</v>
+        <v>2780</v>
       </c>
       <c r="AA24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB24" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1022227.157445</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>190490.80128477</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303362.2862978</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138636.95</v>
+      </c>
+      <c r="AU24" t="n">
         <v>51705.7151538095</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1684410.12388358</v>
+      <c r="AV24" t="n">
+        <v>754799.8146740274</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2618702.974855407</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>110</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>689414.5732848</v>
+        <v>1482854.70661271</v>
       </c>
       <c r="U25" t="n">
-        <v>138358.681168</v>
+        <v>266818.850035728</v>
       </c>
       <c r="V25" t="n">
-        <v>101533.53151222</v>
+        <v>200327.1994074055</v>
       </c>
       <c r="W25" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3060</v>
+        <v>3260</v>
       </c>
       <c r="AA25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB25" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1271597.008325</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>236873.59354845</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>582342.3606660001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>203314.2</v>
+      </c>
+      <c r="AU25" t="n">
         <v>71582.427665815</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2243801.279539265</v>
+      <c r="AV25" t="n">
+        <v>1945302.92824655</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4494080.168451815</v>
       </c>
     </row>
   </sheetData>
